--- a/SWPattern/experimentalResults/scholarDatasets/outputScholarly.xlsx
+++ b/SWPattern/experimentalResults/scholarDatasets/outputScholarly.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="48">
   <si>
     <t>input</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>WWW'12</t>
+  </si>
+  <si>
+    <t>Property Based (PB)</t>
+  </si>
+  <si>
+    <t>Property Class Based (PCB)</t>
   </si>
 </sst>
 </file>
@@ -709,7 +715,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="8" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="5" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -738,6 +744,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="32" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1063,12 +1072,12 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="A3" activeCellId="11" sqref="C15 B15 A16 A17 A30 A31 B29 C29 B1 C1 A2 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -1079,12 +1088,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -1116,7 +1125,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="10">
@@ -1154,7 +1163,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="11">
@@ -1563,12 +1572,12 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -1600,7 +1609,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="10">
@@ -1638,7 +1647,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="11">
@@ -2049,10 +2058,10 @@
       <c r="A29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -2084,7 +2093,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="10">
@@ -2122,7 +2131,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="11">
